--- a/반승호/RK3566_BOM_2023.08.16.xlsx
+++ b/반승호/RK3566_BOM_2023.08.16.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac837\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac837\Desktop\hd_stock\반승호\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A2CA37-FFD1-4D87-8755-1DFFD7A8B069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C12CBD2-841E-41EC-A90D-36ECAF33447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_pcb (4)" sheetId="1" r:id="rId1"/>
-    <sheet name="연습" sheetId="2" r:id="rId2"/>
+    <sheet name="반승호" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="510">
   <si>
     <t>References</t>
   </si>
@@ -1547,6 +1547,62 @@
   </si>
   <si>
     <t>DMG101012T-7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES8388</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS34</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC-DA1608HGK-572C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GfoVc-FcMaiHdcf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD-4P-2.0MM-90Pc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(114020164</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMAJ6'0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMAJ9'0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAM8302AAD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMAJ15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS24</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chip-TahJaIDsIze220UF10V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩저항1607사이즈F급4,7K옴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>칩저항1608사이즈F급10K옴</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2542,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4205,6 +4261,9 @@
       <c r="C61" t="s">
         <v>288</v>
       </c>
+      <c r="F61" t="s">
+        <v>289</v>
+      </c>
       <c r="G61" s="3">
         <v>22</v>
       </c>
@@ -4224,6 +4283,9 @@
       </c>
       <c r="C62" t="s">
         <v>291</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="G62" s="3">
         <v>20</v>
@@ -5263,8 +5325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A438C5D-6799-49CD-8A91-E54FCE53B072}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5326,7 +5388,7 @@
         <v>474</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -5508,6 +5570,112 @@
       </c>
       <c r="B30">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>503</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>504</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>502</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>497</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>505</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>506</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>498</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>501</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>507</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>509</v>
+      </c>
+      <c r="B44">
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
